--- a/CollectionSoftware3/ARUL STORE (CHOO).xlsx
+++ b/CollectionSoftware3/ARUL STORE (CHOO).xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A0:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -421,33 +421,23 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
+    <row r="0">
+      <c r="A0" t="inlineStr">
         <is>
           <t>2023-07-18</t>
         </is>
       </c>
-      <c r="B1" t="n">
-        <v>7941</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2023-07-18</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+      <c r="B0" t="n">
         <v>7237</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+    <row r="1">
+      <c r="A1" t="inlineStr">
         <is>
           <t>2023-07-19</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B1" t="n">
         <v>1690</v>
       </c>
     </row>

--- a/CollectionSoftware3/ARUL STORE (CHOO).xlsx
+++ b/CollectionSoftware3/ARUL STORE (CHOO).xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -428,30 +428,18 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>3500</v>
+        <v>12336</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>24-07-2023</t>
+          <t>25-07-2023</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12336</v>
+        <v>3520</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
